--- a/Models/MIKE1D/TransferTimeSeries.xlsx
+++ b/Models/MIKE1D/TransferTimeSeries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\DHIGitHub\DomainServicesCourse\Models\MIKE1D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53AAFB5-0263-4B8D-847A-E71AC08E83FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76D3A72-7062-433A-A1E6-42491EF61AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>SourceRepository</t>
   </si>
@@ -78,9 +78,6 @@
     <t>[root]\Current\Vida_m1d - Result Files\Vida_1BaseDefault_Network_HD.res1d</t>
   </si>
   <si>
-    <t>VidaaResults/water-level-reach-11300-[id]</t>
-  </si>
-  <si>
     <t>Node;WaterLevel;'VIDAA-NED', 10800</t>
   </si>
   <si>
@@ -96,17 +93,14 @@
     <t>Enabled</t>
   </si>
   <si>
-    <t>CaliSimulationResults/water-level-reach-0-[id]</t>
-  </si>
-  <si>
-    <t>CaliSimulationResults/water-level-reach-11300-[id]</t>
+    <t>Model/water-level-reach-11300-[id]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,18 +130,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,16 +156,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73CE285-83FC-4305-AA90-9332EDF67D32}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -479,7 +458,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -523,16 +502,16 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -549,7 +528,7 @@
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -558,97 +537,27 @@
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Models/MIKE1D/TransferTimeSeries.xlsx
+++ b/Models/MIKE1D/TransferTimeSeries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\DHIGitHub\DomainServicesCourse\Models\MIKE1D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76D3A72-7062-433A-A1E6-42491EF61AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086EE623-8AB1-47EF-9EF6-83807431796D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73CE285-83FC-4305-AA90-9332EDF67D32}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
